--- a/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>19,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-19,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,72</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>11,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 14,12</t>
+          <t>5,55; 49,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 13,56</t>
+          <t>0,0; 31,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 7,16</t>
+          <t>0,0; 48,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 11,67</t>
+          <t>-39,55; -5,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 3,31</t>
+          <t>-24,31; 27,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -4,87</t>
+          <t>-19,18; 41,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 10,01</t>
+          <t>-15,99; 14,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,78</t>
+          <t>-12,3; 15,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,31; -0,9</t>
+          <t>-7,34; 31,84</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,66%</t>
+          <t>-2,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,32%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,76%</t>
+          <t>107,46%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 94,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 93,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 51,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 53,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 14,59</t>
+          <t>-100,0; 527,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,62; -21,46</t>
+          <t>-73,35; 642,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 51,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 30,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -4,61</t>
+          <t>-53,42; 785,85</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-6,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -0,14</t>
+          <t>-3,7; 14,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 2,25</t>
+          <t>-3,58; 13,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 5,37</t>
+          <t>-8,71; 7,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 14,35</t>
+          <t>-7,28; 11,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 4,18</t>
+          <t>-14,47; 3,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 7,63</t>
+          <t>-22,05; -4,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,02</t>
+          <t>-3,14; 10,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,7</t>
+          <t>-6,42; 5,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 4,04</t>
+          <t>-12,31; -0,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-32,72%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>-21,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,81%</t>
+          <t>-52,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,27%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,74%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>-30,76%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 2,22</t>
+          <t>-16,28; 94,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 19,56</t>
+          <t>-17,44; 93,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 44,75</t>
+          <t>-38,3; 51,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 149,02</t>
+          <t>-23,32; 53,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 38,73</t>
+          <t>-46,62; 14,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 80,62</t>
+          <t>-71,62; -21,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 42,4</t>
+          <t>-12,83; 51,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 13,93</t>
+          <t>-26,12; 30,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 32,95</t>
+          <t>-50,54; -4,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,53</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 49,72</t>
+          <t>-4,32; 15,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,3</t>
+          <t>-2,65; 16,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,42</t>
+          <t>-7,87; 11,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -5,08</t>
+          <t>-15,1; 5,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 27,95</t>
+          <t>-15,92; 5,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 41,51</t>
+          <t>-6,53; 14,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 14,07</t>
+          <t>-6,84; 7,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 15,92</t>
+          <t>-6,1; 8,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 31,84</t>
+          <t>-4,74; 10,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-26,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107,46%</t>
+          <t>13,8%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,9; 134,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; 143,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,75; 91,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,54; 32,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 527,41</t>
+          <t>-58,42; 34,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 642,95</t>
+          <t>-25,52; 91,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,0; 52,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,24; 55,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 785,85</t>
+          <t>-20,99; 65,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 15,43</t>
+          <t>-15,91; -0,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 16,99</t>
+          <t>-13,5; 2,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 11,0</t>
+          <t>-12,08; 5,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 5,26</t>
+          <t>-4,07; 14,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 5,1</t>
+          <t>-11,3; 4,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 14,6</t>
+          <t>-8,63; 7,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 7,84</t>
+          <t>-7,63; 5,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,51</t>
+          <t>-10,59; 1,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,12</t>
+          <t>-8,23; 4,04</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>-32,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-19,5%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>-7,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>-9,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>-26,74%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>-13,3%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 134,09</t>
+          <t>-74,25; 2,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 143,56</t>
+          <t>-63,84; 19,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 91,67</t>
+          <t>-58,65; 44,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 32,06</t>
+          <t>-24,07; 149,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 34,51</t>
+          <t>-60,65; 38,73</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 91,86</t>
+          <t>-49,23; 80,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 52,43</t>
+          <t>-42,35; 42,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 55,22</t>
+          <t>-54,56; 13,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 65,67</t>
+          <t>-44,42; 32,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 49,72</t>
+          <t>5,24; 46,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,3</t>
+          <t>0,0; 31,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,55; -5,08</t>
+          <t>-43,38; -5,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 27,95</t>
+          <t>-23,51; 29,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 41,51</t>
+          <t>-18,11; 43,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 14,07</t>
+          <t>-15,09; 14,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 15,92</t>
+          <t>-12,3; 17,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 31,84</t>
+          <t>-7,35; 33,27</t>
         </is>
       </c>
     </row>
@@ -811,27 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 527,41</t>
+          <t>-100,0; 574,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,35; 642,95</t>
+          <t>-69,07; 766,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 418,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,27; 531,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 785,85</t>
+          <t>-56,4; 724,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 14,27</t>
+          <t>-8,85; 15,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,71</t>
+          <t>-15,2; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 2,64</t>
+          <t>-19,78; 1,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 8,79</t>
+          <t>-14,46; 9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 13,72</t>
+          <t>-10,69; 14,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 6,15</t>
+          <t>-16,46; 5,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 8,96</t>
+          <t>-7,82; 8,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 7,82</t>
+          <t>-9,6; 6,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 1,04</t>
+          <t>-15,17; 0,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 89,31</t>
+          <t>-34,26; 98,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 55,92</t>
+          <t>-59,1; 43,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,21; 17,74</t>
+          <t>-72,6; 18,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 59,33</t>
+          <t>-55,05; 69,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 94,43</t>
+          <t>-41,76; 98,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 42,68</t>
+          <t>-59,46; 38,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 50,69</t>
+          <t>-31,48; 52,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 46,51</t>
+          <t>-39,4; 39,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,8; 7,85</t>
+          <t>-60,62; 5,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 14,12</t>
+          <t>-4,22; 12,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 13,56</t>
+          <t>-4,46; 13,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 7,16</t>
+          <t>-9,72; 6,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 11,67</t>
+          <t>-8,24; 10,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 3,31</t>
+          <t>-13,58; 3,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -4,87</t>
+          <t>-21,71; -6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 10,01</t>
+          <t>-2,86; 9,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,78</t>
+          <t>-7,26; 5,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,31; -0,9</t>
+          <t>-12,61; -0,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 94,79</t>
+          <t>-17,23; 95,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 93,36</t>
+          <t>-21,61; 93,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 51,99</t>
+          <t>-42,41; 42,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 53,15</t>
+          <t>-26,08; 49,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 14,59</t>
+          <t>-45,64; 15,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,62; -21,46</t>
+          <t>-69,93; -25,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 51,65</t>
+          <t>-11,71; 49,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 30,62</t>
+          <t>-27,95; 27,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -4,61</t>
+          <t>-49,87; -4,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 15,43</t>
+          <t>-4,49; 13,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 16,99</t>
+          <t>-2,03; 18,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 11,0</t>
+          <t>-7,7; 11,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 5,26</t>
+          <t>-13,68; 5,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 5,1</t>
+          <t>-15,67; 3,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 14,6</t>
+          <t>-7,53; 14,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 7,84</t>
+          <t>-6,02; 7,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,51</t>
+          <t>-6,33; 7,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 10,12</t>
+          <t>-4,48; 10,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 134,09</t>
+          <t>-22,8; 112,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 143,56</t>
+          <t>-12,94; 157,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 91,67</t>
+          <t>-39,7; 90,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 32,06</t>
+          <t>-52,23; 35,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 34,51</t>
+          <t>-57,19; 25,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 91,86</t>
+          <t>-27,73; 89,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 52,43</t>
+          <t>-26,68; 50,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 55,22</t>
+          <t>-28,28; 49,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 65,67</t>
+          <t>-20,85; 66,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -0,14</t>
+          <t>-15,33; 0,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 2,25</t>
+          <t>-13,36; 2,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 5,37</t>
+          <t>-11,71; 5,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 14,35</t>
+          <t>-3,79; 15,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 4,18</t>
+          <t>-11,34; 5,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 7,63</t>
+          <t>-9,33; 6,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 5,02</t>
+          <t>-8,06; 4,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,7</t>
+          <t>-10,18; 1,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 4,04</t>
+          <t>-8,08; 4,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 2,22</t>
+          <t>-71,3; 7,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 19,56</t>
+          <t>-64,08; 22,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 44,75</t>
+          <t>-56,48; 42,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 149,02</t>
+          <t>-23,81; 156,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 38,73</t>
+          <t>-61,58; 60,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 80,62</t>
+          <t>-51,47; 75,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 42,4</t>
+          <t>-41,42; 37,66</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 13,93</t>
+          <t>-52,42; 19,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 32,95</t>
+          <t>-44,18; 41,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,51</t>
+          <t>-3,13; 5,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,66</t>
+          <t>-4,28; 5,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,38</t>
+          <t>-5,98; 2,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,29</t>
+          <t>-5,03; 4,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,02</t>
+          <t>-8,66; 0,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 0,54</t>
+          <t>-8,43; 1,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,12</t>
+          <t>-2,42; 4,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 1,81</t>
+          <t>-4,87; 2,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,56</t>
+          <t>-5,79; 0,73</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 43,07</t>
+          <t>-15,26; 36,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 29,7</t>
+          <t>-20,88; 33,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 23,02</t>
+          <t>-29,77; 19,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 29,39</t>
+          <t>-21,13; 23,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 6,31</t>
+          <t>-37,5; 5,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 3,23</t>
+          <t>-35,9; 7,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 24,06</t>
+          <t>-11,92; 23,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 10,4</t>
+          <t>-23,81; 11,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 3,05</t>
+          <t>-28,29; 4,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 46,43</t>
+          <t>5,21; 45,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,2</t>
+          <t>0,0; 36,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,42</t>
+          <t>0,0; 52,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-43,38; -5,16</t>
+          <t>-38,82; -4,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 29,3</t>
+          <t>-23,61; 27,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 43,27</t>
+          <t>-16,5; 41,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 14,09</t>
+          <t>-14,46; 15,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 17,57</t>
+          <t>-12,64; 17,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 33,27</t>
+          <t>-5,85; 37,67</t>
         </is>
       </c>
     </row>
@@ -811,34 +811,34 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 574,07</t>
+          <t>-100,0; 427,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 766,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 418,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,27; 531,18</t>
+          <t>-81,16; 555,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 724,63</t>
+          <t>-56,25; 1107,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 15,38</t>
+          <t>-8,73; 15,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 7,2</t>
+          <t>-15,62; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 1,89</t>
+          <t>-19,94; 2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 9,53</t>
+          <t>-14,11; 9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 14,36</t>
+          <t>-9,27; 14,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 5,11</t>
+          <t>-15,04; 6,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 8,93</t>
+          <t>-7,83; 8,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 6,89</t>
+          <t>-9,45; 7,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 0,68</t>
+          <t>-14,65; 1,14</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 98,5</t>
+          <t>-32,62; 101,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,1; 43,0</t>
+          <t>-57,18; 42,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,6; 18,99</t>
+          <t>-72,96; 15,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,05; 69,76</t>
+          <t>-53,0; 66,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 98,22</t>
+          <t>-37,77; 109,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 38,17</t>
+          <t>-57,07; 45,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 52,5</t>
+          <t>-32,0; 50,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 39,85</t>
+          <t>-37,92; 42,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 5,57</t>
+          <t>-58,12; 7,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 12,97</t>
+          <t>-3,76; 13,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 13,27</t>
+          <t>-4,1; 13,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 6,56</t>
+          <t>-8,21; 7,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 10,83</t>
+          <t>-7,81; 11,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 3,51</t>
+          <t>-14,85; 3,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -6,29</t>
+          <t>-22,08; -5,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 9,78</t>
+          <t>-2,81; 9,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 5,68</t>
+          <t>-7,13; 5,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -0,94</t>
+          <t>-13,05; -1,73</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 95,63</t>
+          <t>-15,86; 91,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 93,35</t>
+          <t>-18,33; 91,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 42,83</t>
+          <t>-36,24; 54,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 49,38</t>
+          <t>-25,37; 51,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 15,82</t>
+          <t>-48,55; 14,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,93; -25,1</t>
+          <t>-71,4; -22,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 49,67</t>
+          <t>-11,86; 48,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 27,99</t>
+          <t>-26,82; 28,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -4,25</t>
+          <t>-50,78; -8,56</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 13,78</t>
+          <t>-4,76; 14,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 18,07</t>
+          <t>-2,07; 19,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 11,18</t>
+          <t>-8,09; 10,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 5,76</t>
+          <t>-15,48; 5,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 3,83</t>
+          <t>-15,46; 4,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 14,53</t>
+          <t>-6,78; 14,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 7,88</t>
+          <t>-5,69; 8,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 7,94</t>
+          <t>-6,75; 8,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 10,14</t>
+          <t>-4,52; 9,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 112,41</t>
+          <t>-26,52; 122,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 157,15</t>
+          <t>-11,43; 165,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 90,9</t>
+          <t>-38,85; 88,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,23; 35,1</t>
+          <t>-55,91; 37,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,19; 25,65</t>
+          <t>-58,91; 29,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 89,9</t>
+          <t>-25,42; 89,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 50,19</t>
+          <t>-25,99; 55,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 49,68</t>
+          <t>-29,45; 53,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 66,58</t>
+          <t>-22,24; 59,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 0,19</t>
+          <t>-16,49; 1,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 2,83</t>
+          <t>-14,08; 2,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 5,49</t>
+          <t>-13,33; 5,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 15,24</t>
+          <t>-4,38; 13,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 5,43</t>
+          <t>-10,9; 4,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,65</t>
+          <t>-9,55; 7,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 4,61</t>
+          <t>-7,48; 4,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 1,95</t>
+          <t>-9,52; 1,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,64</t>
+          <t>-7,89; 4,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 7,65</t>
+          <t>-73,81; 17,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,08; 22,3</t>
+          <t>-64,54; 23,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 42,28</t>
+          <t>-60,3; 42,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 156,7</t>
+          <t>-26,46; 147,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 60,42</t>
+          <t>-59,3; 48,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 75,9</t>
+          <t>-51,22; 80,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,42; 37,66</t>
+          <t>-40,63; 35,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,42; 19,99</t>
+          <t>-52,67; 12,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 41,11</t>
+          <t>-43,49; 39,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 5,76</t>
+          <t>-2,7; 6,32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,02</t>
+          <t>-3,79; 5,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,82</t>
+          <t>-5,78; 3,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 4,51</t>
+          <t>-4,67; 4,81</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,95</t>
+          <t>-8,54; 0,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 1,39</t>
+          <t>-8,49; 1,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,18</t>
+          <t>-2,7; 4,42</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,09</t>
+          <t>-4,72; 1,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,73</t>
+          <t>-5,9; 0,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 36,8</t>
+          <t>-13,36; 42,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 33,47</t>
+          <t>-19,93; 34,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 19,23</t>
+          <t>-29,5; 22,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 23,79</t>
+          <t>-20,34; 27,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 5,12</t>
+          <t>-36,2; 5,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 7,46</t>
+          <t>-37,8; 7,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 23,78</t>
+          <t>-13,42; 25,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 11,42</t>
+          <t>-22,69; 10,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 4,47</t>
+          <t>-28,99; 3,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,77</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,53</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>-3,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 45,1</t>
+          <t>-16,12; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,78</t>
+          <t>-10,13; 12,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,91</t>
+          <t>-12,04; 7,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,82; -4,69</t>
+          <t>-5,22; 16,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 27,12</t>
+          <t>-12,65; 8,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 41,92</t>
+          <t>-15,13; 4,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 15,12</t>
+          <t>-7,2; 7,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 17,99</t>
+          <t>-8,97; 6,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 37,67</t>
+          <t>-11,37; 3,59</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>-30,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>107,46%</t>
+          <t>-20,61%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,18; 36,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,0; 84,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,09; 52,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,55; 126,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 427,25</t>
+          <t>-55,16; 66,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,87; 44,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,29; 47,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,16; 555,17</t>
+          <t>-39,52; 39,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-56,25; 1107,73</t>
+          <t>-52,08; 22,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-13,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-6,25</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 15,85</t>
+          <t>-7,28; 11,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 6,79</t>
+          <t>-14,47; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 2,01</t>
+          <t>-21,66; -4,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 9,21</t>
+          <t>-3,7; 14,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,64</t>
+          <t>-3,58; 13,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 6,06</t>
+          <t>-8,11; 7,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 8,74</t>
+          <t>-3,14; 10,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 7,03</t>
+          <t>-6,42; 5,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 1,14</t>
+          <t>-11,93; -0,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,91%</t>
+          <t>-21,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-42,12%</t>
+          <t>-50,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-1,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,74%</t>
+          <t>-27,9%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 101,38</t>
+          <t>-23,32; 53,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,18; 42,54</t>
+          <t>-46,62; 14,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,96; 15,79</t>
+          <t>-70,61; -18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 66,11</t>
+          <t>-16,28; 94,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,77; 109,07</t>
+          <t>-17,44; 93,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 45,79</t>
+          <t>-35,92; 56,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 50,87</t>
+          <t>-12,83; 51,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,92; 42,67</t>
+          <t>-26,12; 30,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 7,78</t>
+          <t>-48,74; -0,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,72</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 13,09</t>
+          <t>-15,1; 5,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 13,43</t>
+          <t>-15,92; 5,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,46</t>
+          <t>-6,11; 15,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 11,01</t>
+          <t>-4,32; 15,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 3,12</t>
+          <t>-2,65; 16,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,08; -5,23</t>
+          <t>-8,16; 10,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 9,59</t>
+          <t>-6,84; 7,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 5,59</t>
+          <t>-6,1; 8,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,05; -1,73</t>
+          <t>-4,74; 10,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>-26,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-21,66%</t>
+          <t>46,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-52,32%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-30,76%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 91,02</t>
+          <t>-54,54; 32,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 91,63</t>
+          <t>-58,42; 34,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 54,05</t>
+          <t>-25,89; 96,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 51,08</t>
+          <t>-21,9; 134,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 14,46</t>
+          <t>-15,31; 143,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,4; -22,77</t>
+          <t>-40,59; 85,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 48,99</t>
+          <t>-30,0; 52,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 28,58</t>
+          <t>-29,24; 55,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,78; -8,56</t>
+          <t>-20,95; 70,08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 14,96</t>
+          <t>-4,07; 14,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 19,31</t>
+          <t>-11,3; 4,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 10,2</t>
+          <t>-8,22; 8,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 5,8</t>
+          <t>-15,91; -0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 4,55</t>
+          <t>-13,5; 2,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 14,43</t>
+          <t>-11,71; 6,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 8,07</t>
+          <t>-7,63; 5,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 8,47</t>
+          <t>-10,59; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 9,62</t>
+          <t>-7,8; 4,85</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>-19,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-4,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,5%</t>
+          <t>-44,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>-32,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>-9,27%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>-26,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>-8,97%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 122,57</t>
+          <t>-24,07; 149,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 165,03</t>
+          <t>-60,65; 38,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 88,71</t>
+          <t>-46,94; 87,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 37,46</t>
+          <t>-74,25; 2,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 29,12</t>
+          <t>-63,84; 19,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 89,61</t>
+          <t>-55,87; 53,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 55,68</t>
+          <t>-42,35; 42,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 53,14</t>
+          <t>-54,56; 13,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 59,87</t>
+          <t>-41,22; 39,72</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 1,52</t>
+          <t>-5,0; 5,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 2,35</t>
+          <t>-8,38; 1,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 5,22</t>
+          <t>-7,88; 1,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 13,7</t>
+          <t>-3,23; 6,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 4,02</t>
+          <t>-3,74; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 7,13</t>
+          <t>-5,72; 3,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 4,26</t>
+          <t>-2,32; 4,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 1,14</t>
+          <t>-4,76; 1,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 4,32</t>
+          <t>-5,58; 0,9</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>-0,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,72%</t>
+          <t>-18,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>-15,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,81%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-9,27%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-26,74%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>-11,83%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,81; 17,14</t>
+          <t>-22,88; 29,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,54; 23,34</t>
+          <t>-35,96; 6,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 42,81</t>
+          <t>-33,46; 6,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 147,09</t>
+          <t>-16,11; 43,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,3; 48,08</t>
+          <t>-18,81; 29,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 80,72</t>
+          <t>-28,74; 25,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 35,43</t>
+          <t>-11,1; 24,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 12,21</t>
+          <t>-22,96; 10,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 39,33</t>
+          <t>-27,14; 5,49</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,75</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,81</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 6,32</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 5,57</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-5,78; 3,23</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 4,81</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 0,89</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-8,49; 1,28</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 4,42</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 1,88</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 0,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>10,57%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>3,69%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-9,48%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-0,47%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-18,06%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-18,36%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-7,95%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-14,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 42,34</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,93; 34,56</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; 22,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-20,34; 27,02</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-36,2; 5,38</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-37,8; 7,29</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-13,42; 25,43</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-22,69; 10,77</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-28,99; 3,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
